--- a/docs/запросы.xlsx
+++ b/docs/запросы.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
   <si>
     <t>№</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Можем реализовать</t>
   </si>
   <si>
-    <t>Требуется дополнительная сущность "Цена" с атрибутами ID, ID торг. т., IT товара, цена, дата начала/окончания, флаг актуальности цены</t>
-  </si>
-  <si>
-    <t>Требуется в сущность "реализация" добавить атрибуты время продажи,"ID продавца</t>
-  </si>
-  <si>
     <t>Требуется в сущность "сотрудник" добавить атрибут зарплата</t>
   </si>
   <si>
@@ -41,6 +35,18 @@
   </si>
   <si>
     <t>Требуется в сущность "поставщик" добавить атрибуты: дата начала и расторжения отношений, причина, банковские реквизиты, контактная информация, рейтинг</t>
+  </si>
+  <si>
+    <t>Готовность</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Требуется дополнительная сущность "Цена" с атрибутами ID, ID торг. т., ID товара, цена, дата начала/окончания, флаг актуальности цены</t>
+  </si>
+  <si>
+    <t>Требуется в сущность "реализация" добавить атрибуты время продажи,ID продавца</t>
   </si>
 </sst>
 </file>
@@ -70,12 +76,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,10 +102,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -398,139 +417,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="190" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>27</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>31</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>33</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>34</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>36</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>37</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>38</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
